--- a/CostesDP.xlsx
+++ b/CostesDP.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,7 @@
         <v>30</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D3">
         <v>180</v>
@@ -453,7 +453,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G7" si="0">B3*F3+((100*(B3+E3)/5760)*C3)+D3</f>
-        <v>1120.8333333333335</v>
+        <v>1016.6666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
